--- a/Data Science/LCS/Players/Keith.xlsx
+++ b/Data Science/LCS/Players/Keith.xlsx
@@ -14,11 +14,20 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="100">
+  <si>
+    <t>datacompleteness</t>
+  </si>
   <si>
     <t>league</t>
   </si>
   <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>playoffs</t>
+  </si>
+  <si>
     <t>game</t>
   </si>
   <si>
@@ -106,15 +115,15 @@
     <t>opp_elementaldrakes</t>
   </si>
   <si>
-    <t>dragons (type unknown)</t>
-  </si>
-  <si>
     <t>elders</t>
   </si>
   <si>
     <t>opp_elders</t>
   </si>
   <si>
+    <t>firstherald</t>
+  </si>
+  <si>
     <t>heralds</t>
   </si>
   <si>
@@ -269,6 +278,9 @@
   </si>
   <si>
     <t>csdiffat15</t>
+  </si>
+  <si>
+    <t>complete</t>
   </si>
   <si>
     <t>LCS</t>
@@ -659,13 +671,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:CH13"/>
+  <dimension ref="A1:CK13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:86">
+    <row r="1" spans="1:89">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -921,325 +933,343 @@
       <c r="CH1" s="1" t="s">
         <v>84</v>
       </c>
+      <c r="CI1" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="CJ1" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="CK1" s="1" t="s">
+        <v>87</v>
+      </c>
     </row>
-    <row r="2" spans="1:86">
+    <row r="2" spans="1:89">
       <c r="A2" s="1">
-        <v>681</v>
+        <v>897</v>
       </c>
       <c r="B2" t="s">
-        <v>85</v>
-      </c>
-      <c r="C2">
+        <v>88</v>
+      </c>
+      <c r="C2" t="s">
+        <v>89</v>
+      </c>
+      <c r="D2">
+        <v>2020</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
         <v>1</v>
       </c>
-      <c r="D2">
+      <c r="G2">
         <v>10.01</v>
-      </c>
-      <c r="E2" t="s">
-        <v>86</v>
-      </c>
-      <c r="F2" t="s">
-        <v>88</v>
-      </c>
-      <c r="G2" t="s">
-        <v>89</v>
       </c>
       <c r="H2" t="s">
         <v>90</v>
       </c>
       <c r="I2" t="s">
+        <v>92</v>
+      </c>
+      <c r="J2" t="s">
+        <v>93</v>
+      </c>
+      <c r="K2" t="s">
+        <v>94</v>
+      </c>
+      <c r="L2" t="s">
+        <v>95</v>
+      </c>
+      <c r="M2">
+        <v>2282</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>1</v>
+      </c>
+      <c r="P2">
+        <v>4</v>
+      </c>
+      <c r="Q2">
+        <v>7</v>
+      </c>
+      <c r="R2">
+        <v>12</v>
+      </c>
+      <c r="S2">
+        <v>14</v>
+      </c>
+      <c r="T2">
+        <v>0</v>
+      </c>
+      <c r="U2">
+        <v>0</v>
+      </c>
+      <c r="V2">
+        <v>0</v>
+      </c>
+      <c r="W2">
+        <v>0</v>
+      </c>
+      <c r="X2">
+        <v>0</v>
+      </c>
+      <c r="Y2">
+        <v>0</v>
+      </c>
+      <c r="Z2">
+        <v>0</v>
+      </c>
+      <c r="AA2">
+        <v>0</v>
+      </c>
+      <c r="AB2">
+        <v>0.3155</v>
+      </c>
+      <c r="AC2">
+        <v>0.6836</v>
+      </c>
+      <c r="AD2">
+        <v>0</v>
+      </c>
+      <c r="AE2">
+        <v>0</v>
+      </c>
+      <c r="AF2">
+        <v>0</v>
+      </c>
+      <c r="AG2">
+        <v>0</v>
+      </c>
+      <c r="AH2">
+        <v>0</v>
+      </c>
+      <c r="AI2">
+        <v>0</v>
+      </c>
+      <c r="AJ2">
+        <v>0</v>
+      </c>
+      <c r="AK2">
+        <v>0</v>
+      </c>
+      <c r="AL2">
+        <v>0</v>
+      </c>
+      <c r="AM2">
+        <v>0</v>
+      </c>
+      <c r="AN2">
+        <v>0</v>
+      </c>
+      <c r="AO2">
+        <v>0</v>
+      </c>
+      <c r="AP2">
+        <v>0</v>
+      </c>
+      <c r="AQ2">
+        <v>0</v>
+      </c>
+      <c r="AR2">
+        <v>0</v>
+      </c>
+      <c r="AS2">
+        <v>0</v>
+      </c>
+      <c r="AT2">
+        <v>0</v>
+      </c>
+      <c r="AU2">
+        <v>0</v>
+      </c>
+      <c r="AV2">
+        <v>0</v>
+      </c>
+      <c r="AW2">
+        <v>0</v>
+      </c>
+      <c r="AX2">
+        <v>5114</v>
+      </c>
+      <c r="AY2">
+        <v>134.461</v>
+      </c>
+      <c r="AZ2">
+        <v>0.06496030000000001</v>
+      </c>
+      <c r="BA2">
+        <v>48</v>
+      </c>
+      <c r="BB2">
+        <v>1.2621</v>
+      </c>
+      <c r="BC2">
+        <v>12</v>
+      </c>
+      <c r="BD2">
+        <v>0.3155</v>
+      </c>
+      <c r="BE2">
+        <v>18</v>
+      </c>
+      <c r="BF2">
+        <v>88</v>
+      </c>
+      <c r="BG2">
+        <v>2.3138</v>
+      </c>
+      <c r="BH2">
+        <v>7506</v>
+      </c>
+      <c r="BI2">
+        <v>2575</v>
+      </c>
+      <c r="BJ2">
+        <v>67.7038</v>
+      </c>
+      <c r="BK2">
+        <v>0.0769069</v>
+      </c>
+      <c r="BL2">
+        <v>7350</v>
+      </c>
+      <c r="BM2">
+        <v>0</v>
+      </c>
+      <c r="BN2">
+        <v>35</v>
+      </c>
+      <c r="BO2">
+        <v>35</v>
+      </c>
+      <c r="BP2">
+        <v>0</v>
+      </c>
+      <c r="BQ2">
+        <v>0</v>
+      </c>
+      <c r="BR2">
+        <v>0</v>
+      </c>
+      <c r="BS2">
+        <v>0.9202</v>
+      </c>
+      <c r="BT2">
+        <v>1992</v>
+      </c>
+      <c r="BU2">
+        <v>1979</v>
+      </c>
+      <c r="BV2">
+        <v>12</v>
+      </c>
+      <c r="BW2">
+        <v>2105</v>
+      </c>
+      <c r="BX2">
+        <v>2407</v>
+      </c>
+      <c r="BY2">
+        <v>16</v>
+      </c>
+      <c r="BZ2">
+        <v>-113</v>
+      </c>
+      <c r="CA2">
+        <v>-428</v>
+      </c>
+      <c r="CB2">
+        <v>-4</v>
+      </c>
+      <c r="CC2">
+        <v>3145</v>
+      </c>
+      <c r="CD2">
+        <v>3246</v>
+      </c>
+      <c r="CE2">
+        <v>21</v>
+      </c>
+      <c r="CF2">
+        <v>3250</v>
+      </c>
+      <c r="CG2">
+        <v>3309</v>
+      </c>
+      <c r="CH2">
+        <v>24</v>
+      </c>
+      <c r="CI2">
+        <v>-105</v>
+      </c>
+      <c r="CJ2">
+        <v>-63</v>
+      </c>
+      <c r="CK2">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:89">
+      <c r="A3" s="1">
+        <v>1000</v>
+      </c>
+      <c r="B3" t="s">
+        <v>88</v>
+      </c>
+      <c r="C3" t="s">
+        <v>89</v>
+      </c>
+      <c r="D3">
+        <v>2020</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>10.01</v>
+      </c>
+      <c r="H3" t="s">
         <v>91</v>
-      </c>
-      <c r="J2">
-        <v>2282</v>
-      </c>
-      <c r="K2">
-        <v>0</v>
-      </c>
-      <c r="L2">
-        <v>1</v>
-      </c>
-      <c r="M2">
-        <v>4</v>
-      </c>
-      <c r="N2">
-        <v>7</v>
-      </c>
-      <c r="O2">
-        <v>12</v>
-      </c>
-      <c r="P2">
-        <v>14</v>
-      </c>
-      <c r="Q2">
-        <v>0</v>
-      </c>
-      <c r="R2">
-        <v>0</v>
-      </c>
-      <c r="S2">
-        <v>0</v>
-      </c>
-      <c r="T2">
-        <v>0</v>
-      </c>
-      <c r="U2">
-        <v>0</v>
-      </c>
-      <c r="V2">
-        <v>0</v>
-      </c>
-      <c r="W2">
-        <v>0</v>
-      </c>
-      <c r="X2">
-        <v>0</v>
-      </c>
-      <c r="Y2">
-        <v>0.3155</v>
-      </c>
-      <c r="Z2">
-        <v>0.6836</v>
-      </c>
-      <c r="AA2">
-        <v>0</v>
-      </c>
-      <c r="AB2">
-        <v>0</v>
-      </c>
-      <c r="AC2">
-        <v>0</v>
-      </c>
-      <c r="AD2">
-        <v>0</v>
-      </c>
-      <c r="AE2">
-        <v>0</v>
-      </c>
-      <c r="AF2">
-        <v>0</v>
-      </c>
-      <c r="AG2">
-        <v>0</v>
-      </c>
-      <c r="AH2">
-        <v>0</v>
-      </c>
-      <c r="AI2">
-        <v>0</v>
-      </c>
-      <c r="AJ2">
-        <v>0</v>
-      </c>
-      <c r="AK2">
-        <v>0</v>
-      </c>
-      <c r="AL2">
-        <v>0</v>
-      </c>
-      <c r="AM2">
-        <v>0</v>
-      </c>
-      <c r="AN2">
-        <v>0</v>
-      </c>
-      <c r="AO2">
-        <v>0</v>
-      </c>
-      <c r="AP2">
-        <v>0</v>
-      </c>
-      <c r="AQ2">
-        <v>0</v>
-      </c>
-      <c r="AR2">
-        <v>0</v>
-      </c>
-      <c r="AS2">
-        <v>0</v>
-      </c>
-      <c r="AT2">
-        <v>0</v>
-      </c>
-      <c r="AU2">
-        <v>5114</v>
-      </c>
-      <c r="AV2">
-        <v>134.461</v>
-      </c>
-      <c r="AW2">
-        <v>0.06496030000000001</v>
-      </c>
-      <c r="AX2">
-        <v>48</v>
-      </c>
-      <c r="AY2">
-        <v>1.2621</v>
-      </c>
-      <c r="AZ2">
-        <v>12</v>
-      </c>
-      <c r="BA2">
-        <v>0.3155</v>
-      </c>
-      <c r="BB2">
-        <v>18</v>
-      </c>
-      <c r="BC2">
-        <v>88</v>
-      </c>
-      <c r="BD2">
-        <v>2.3138</v>
-      </c>
-      <c r="BE2">
-        <v>7506</v>
-      </c>
-      <c r="BF2">
-        <v>2575</v>
-      </c>
-      <c r="BG2">
-        <v>67.7038</v>
-      </c>
-      <c r="BH2">
-        <v>0.0769069</v>
-      </c>
-      <c r="BI2">
-        <v>7350</v>
-      </c>
-      <c r="BJ2">
-        <v>0</v>
-      </c>
-      <c r="BK2">
-        <v>35</v>
-      </c>
-      <c r="BL2">
-        <v>35</v>
-      </c>
-      <c r="BM2">
-        <v>0</v>
-      </c>
-      <c r="BN2">
-        <v>0</v>
-      </c>
-      <c r="BO2">
-        <v>0</v>
-      </c>
-      <c r="BP2">
-        <v>0.9202</v>
-      </c>
-      <c r="BQ2">
-        <v>1992</v>
-      </c>
-      <c r="BR2">
-        <v>1979</v>
-      </c>
-      <c r="BS2">
-        <v>12</v>
-      </c>
-      <c r="BT2">
-        <v>2105</v>
-      </c>
-      <c r="BU2">
-        <v>2407</v>
-      </c>
-      <c r="BV2">
-        <v>16</v>
-      </c>
-      <c r="BW2">
-        <v>-113</v>
-      </c>
-      <c r="BX2">
-        <v>-428</v>
-      </c>
-      <c r="BY2">
-        <v>-4</v>
-      </c>
-      <c r="BZ2">
-        <v>3145</v>
-      </c>
-      <c r="CA2">
-        <v>3246</v>
-      </c>
-      <c r="CB2">
-        <v>21</v>
-      </c>
-      <c r="CC2">
-        <v>3250</v>
-      </c>
-      <c r="CD2">
-        <v>3309</v>
-      </c>
-      <c r="CE2">
-        <v>24</v>
-      </c>
-      <c r="CF2">
-        <v>-105</v>
-      </c>
-      <c r="CG2">
-        <v>-63</v>
-      </c>
-      <c r="CH2">
-        <v>-3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:86">
-      <c r="A3" s="1">
-        <v>784</v>
-      </c>
-      <c r="B3" t="s">
-        <v>85</v>
-      </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="D3">
-        <v>10.01</v>
-      </c>
-      <c r="E3" t="s">
-        <v>87</v>
-      </c>
-      <c r="F3" t="s">
-        <v>88</v>
-      </c>
-      <c r="G3" t="s">
-        <v>89</v>
-      </c>
-      <c r="H3" t="s">
-        <v>90</v>
       </c>
       <c r="I3" t="s">
         <v>92</v>
       </c>
-      <c r="J3">
+      <c r="J3" t="s">
+        <v>93</v>
+      </c>
+      <c r="K3" t="s">
+        <v>94</v>
+      </c>
+      <c r="L3" t="s">
+        <v>96</v>
+      </c>
+      <c r="M3">
         <v>2018</v>
       </c>
-      <c r="K3">
-        <v>0</v>
-      </c>
-      <c r="L3">
-        <v>0</v>
-      </c>
-      <c r="M3">
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+      <c r="P3">
         <v>5</v>
       </c>
-      <c r="N3">
+      <c r="Q3">
         <v>1</v>
       </c>
-      <c r="O3">
+      <c r="R3">
         <v>7</v>
       </c>
-      <c r="P3">
+      <c r="S3">
         <v>19</v>
       </c>
-      <c r="Q3">
-        <v>0</v>
-      </c>
-      <c r="R3">
-        <v>0</v>
-      </c>
-      <c r="S3">
-        <v>0</v>
-      </c>
       <c r="T3">
         <v>0</v>
       </c>
@@ -1256,20 +1286,20 @@
         <v>0</v>
       </c>
       <c r="Y3">
+        <v>0</v>
+      </c>
+      <c r="Z3">
+        <v>0</v>
+      </c>
+      <c r="AA3">
+        <v>0</v>
+      </c>
+      <c r="AB3">
         <v>0.2081</v>
       </c>
-      <c r="Z3">
+      <c r="AC3">
         <v>0.773</v>
       </c>
-      <c r="AA3">
-        <v>0</v>
-      </c>
-      <c r="AB3">
-        <v>0</v>
-      </c>
-      <c r="AC3">
-        <v>0</v>
-      </c>
       <c r="AD3">
         <v>0</v>
       </c>
@@ -1322,184 +1352,193 @@
         <v>0</v>
       </c>
       <c r="AU3">
+        <v>0</v>
+      </c>
+      <c r="AV3">
+        <v>0</v>
+      </c>
+      <c r="AW3">
+        <v>0</v>
+      </c>
+      <c r="AX3">
         <v>2089</v>
       </c>
-      <c r="AV3">
+      <c r="AY3">
         <v>62.111</v>
       </c>
-      <c r="AW3">
+      <c r="AZ3">
         <v>0.0444761</v>
       </c>
-      <c r="AX3">
+      <c r="BA3">
         <v>43</v>
       </c>
-      <c r="AY3">
+      <c r="BB3">
         <v>1.2785</v>
       </c>
-      <c r="AZ3">
+      <c r="BC3">
         <v>4</v>
       </c>
-      <c r="BA3">
+      <c r="BD3">
         <v>0.1189</v>
       </c>
-      <c r="BB3">
+      <c r="BE3">
         <v>15</v>
       </c>
-      <c r="BC3">
+      <c r="BF3">
         <v>64</v>
       </c>
-      <c r="BD3">
+      <c r="BG3">
         <v>1.9029</v>
       </c>
-      <c r="BE3">
+      <c r="BH3">
         <v>6193</v>
       </c>
-      <c r="BF3">
+      <c r="BI3">
         <v>1801</v>
       </c>
-      <c r="BG3">
+      <c r="BJ3">
         <v>53.5481</v>
       </c>
-      <c r="BH3">
+      <c r="BK3">
         <v>0.0560568</v>
       </c>
-      <c r="BI3">
+      <c r="BL3">
         <v>5775</v>
       </c>
-      <c r="BJ3">
-        <v>0</v>
-      </c>
-      <c r="BK3">
+      <c r="BM3">
+        <v>0</v>
+      </c>
+      <c r="BN3">
         <v>28</v>
       </c>
-      <c r="BL3">
+      <c r="BO3">
         <v>28</v>
       </c>
-      <c r="BM3">
-        <v>0</v>
-      </c>
-      <c r="BN3">
-        <v>0</v>
-      </c>
-      <c r="BO3">
-        <v>0</v>
-      </c>
       <c r="BP3">
+        <v>0</v>
+      </c>
+      <c r="BQ3">
+        <v>0</v>
+      </c>
+      <c r="BR3">
+        <v>0</v>
+      </c>
+      <c r="BS3">
         <v>0.8325</v>
       </c>
-      <c r="BQ3">
+      <c r="BT3">
         <v>2110</v>
       </c>
-      <c r="BR3">
+      <c r="BU3">
         <v>2780</v>
       </c>
-      <c r="BS3">
+      <c r="BV3">
         <v>13</v>
       </c>
-      <c r="BT3">
+      <c r="BW3">
         <v>2131</v>
       </c>
-      <c r="BU3">
+      <c r="BX3">
         <v>2906</v>
       </c>
-      <c r="BV3">
+      <c r="BY3">
         <v>14</v>
       </c>
-      <c r="BW3">
+      <c r="BZ3">
         <v>-21</v>
       </c>
-      <c r="BX3">
+      <c r="CA3">
         <v>-126</v>
       </c>
-      <c r="BY3">
+      <c r="CB3">
         <v>-1</v>
       </c>
-      <c r="BZ3">
+      <c r="CC3">
         <v>3174</v>
       </c>
-      <c r="CA3">
+      <c r="CD3">
         <v>4111</v>
       </c>
-      <c r="CB3">
+      <c r="CE3">
         <v>21</v>
       </c>
-      <c r="CC3">
+      <c r="CF3">
         <v>3085</v>
       </c>
-      <c r="CD3">
+      <c r="CG3">
         <v>4096</v>
       </c>
-      <c r="CE3">
+      <c r="CH3">
         <v>24</v>
       </c>
-      <c r="CF3">
+      <c r="CI3">
         <v>89</v>
       </c>
-      <c r="CG3">
+      <c r="CJ3">
         <v>15</v>
       </c>
-      <c r="CH3">
+      <c r="CK3">
         <v>-3</v>
       </c>
     </row>
-    <row r="4" spans="1:86">
+    <row r="4" spans="1:89">
       <c r="A4" s="1">
-        <v>1197</v>
+        <v>1725</v>
       </c>
       <c r="B4" t="s">
-        <v>85</v>
-      </c>
-      <c r="C4">
+        <v>88</v>
+      </c>
+      <c r="C4" t="s">
+        <v>89</v>
+      </c>
+      <c r="D4">
+        <v>2020</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
         <v>1</v>
       </c>
-      <c r="D4">
+      <c r="G4">
         <v>10.02</v>
-      </c>
-      <c r="E4" t="s">
-        <v>86</v>
-      </c>
-      <c r="F4" t="s">
-        <v>88</v>
-      </c>
-      <c r="G4" t="s">
-        <v>89</v>
       </c>
       <c r="H4" t="s">
         <v>90</v>
       </c>
       <c r="I4" t="s">
+        <v>92</v>
+      </c>
+      <c r="J4" t="s">
         <v>93</v>
       </c>
-      <c r="J4">
+      <c r="K4" t="s">
+        <v>94</v>
+      </c>
+      <c r="L4" t="s">
+        <v>97</v>
+      </c>
+      <c r="M4">
         <v>2349</v>
       </c>
-      <c r="K4">
+      <c r="N4">
         <v>1</v>
       </c>
-      <c r="L4">
-        <v>0</v>
-      </c>
-      <c r="M4">
+      <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="P4">
         <v>7</v>
       </c>
-      <c r="N4">
+      <c r="Q4">
         <v>3</v>
       </c>
-      <c r="O4">
+      <c r="R4">
         <v>9</v>
       </c>
-      <c r="P4">
+      <c r="S4">
         <v>13</v>
       </c>
-      <c r="Q4">
-        <v>0</v>
-      </c>
-      <c r="R4">
-        <v>0</v>
-      </c>
-      <c r="S4">
-        <v>0</v>
-      </c>
       <c r="T4">
         <v>0</v>
       </c>
@@ -1516,20 +1555,20 @@
         <v>0</v>
       </c>
       <c r="Y4">
+        <v>0</v>
+      </c>
+      <c r="Z4">
+        <v>0</v>
+      </c>
+      <c r="AA4">
+        <v>0</v>
+      </c>
+      <c r="AB4">
         <v>0.2299</v>
       </c>
-      <c r="Z4">
+      <c r="AC4">
         <v>0.5619</v>
       </c>
-      <c r="AA4">
-        <v>0</v>
-      </c>
-      <c r="AB4">
-        <v>0</v>
-      </c>
-      <c r="AC4">
-        <v>0</v>
-      </c>
       <c r="AD4">
         <v>0</v>
       </c>
@@ -1582,147 +1621,156 @@
         <v>0</v>
       </c>
       <c r="AU4">
+        <v>0</v>
+      </c>
+      <c r="AV4">
+        <v>0</v>
+      </c>
+      <c r="AW4">
+        <v>0</v>
+      </c>
+      <c r="AX4">
         <v>2283</v>
       </c>
-      <c r="AV4">
+      <c r="AY4">
         <v>58.3142</v>
       </c>
-      <c r="AW4">
+      <c r="AZ4">
         <v>0.0393553</v>
       </c>
-      <c r="AX4">
+      <c r="BA4">
         <v>65</v>
       </c>
-      <c r="AY4">
+      <c r="BB4">
         <v>1.6603</v>
       </c>
-      <c r="AZ4">
+      <c r="BC4">
         <v>21</v>
       </c>
-      <c r="BA4">
+      <c r="BD4">
         <v>0.5364</v>
       </c>
-      <c r="BB4">
+      <c r="BE4">
         <v>26</v>
       </c>
-      <c r="BC4">
+      <c r="BF4">
         <v>111</v>
       </c>
-      <c r="BD4">
+      <c r="BG4">
         <v>2.8352</v>
       </c>
-      <c r="BE4">
+      <c r="BH4">
         <v>8750</v>
       </c>
-      <c r="BF4">
+      <c r="BI4">
         <v>3682</v>
       </c>
-      <c r="BG4">
+      <c r="BJ4">
         <v>94.0485</v>
       </c>
-      <c r="BH4">
+      <c r="BK4">
         <v>0.0829244</v>
       </c>
-      <c r="BI4">
+      <c r="BL4">
         <v>8750</v>
       </c>
-      <c r="BJ4">
-        <v>0</v>
-      </c>
-      <c r="BK4">
+      <c r="BM4">
+        <v>0</v>
+      </c>
+      <c r="BN4">
         <v>45</v>
       </c>
-      <c r="BL4">
+      <c r="BO4">
         <v>41</v>
       </c>
-      <c r="BM4">
+      <c r="BP4">
         <v>4</v>
       </c>
-      <c r="BN4">
-        <v>0</v>
-      </c>
-      <c r="BO4">
-        <v>0</v>
-      </c>
-      <c r="BP4">
+      <c r="BQ4">
+        <v>0</v>
+      </c>
+      <c r="BR4">
+        <v>0</v>
+      </c>
+      <c r="BS4">
         <v>1.1494</v>
       </c>
-      <c r="BQ4">
+      <c r="BT4">
         <v>1949</v>
       </c>
-      <c r="BR4">
+      <c r="BU4">
         <v>1911</v>
       </c>
-      <c r="BS4">
+      <c r="BV4">
         <v>12</v>
       </c>
-      <c r="BT4">
+      <c r="BW4">
         <v>2076</v>
       </c>
-      <c r="BU4">
+      <c r="BX4">
         <v>2481</v>
       </c>
-      <c r="BV4">
+      <c r="BY4">
         <v>14</v>
       </c>
-      <c r="BW4">
+      <c r="BZ4">
         <v>-127</v>
       </c>
-      <c r="BX4">
+      <c r="CA4">
         <v>-570</v>
       </c>
-      <c r="BY4">
+      <c r="CB4">
         <v>-2</v>
       </c>
-      <c r="BZ4">
+      <c r="CC4">
         <v>3017</v>
       </c>
-      <c r="CA4">
+      <c r="CD4">
         <v>3267</v>
       </c>
-      <c r="CB4">
+      <c r="CE4">
         <v>21</v>
       </c>
-      <c r="CC4">
+      <c r="CF4">
         <v>3103</v>
       </c>
-      <c r="CD4">
+      <c r="CG4">
         <v>3711</v>
       </c>
-      <c r="CE4">
+      <c r="CH4">
         <v>23</v>
       </c>
-      <c r="CF4">
+      <c r="CI4">
         <v>-86</v>
       </c>
-      <c r="CG4">
+      <c r="CJ4">
         <v>-444</v>
       </c>
-      <c r="CH4">
+      <c r="CK4">
         <v>-2</v>
       </c>
     </row>
-    <row r="5" spans="1:86">
+    <row r="5" spans="1:89">
       <c r="A5" s="1">
-        <v>1353</v>
+        <v>1929</v>
       </c>
       <c r="B5" t="s">
-        <v>85</v>
-      </c>
-      <c r="C5">
+        <v>88</v>
+      </c>
+      <c r="C5" t="s">
+        <v>89</v>
+      </c>
+      <c r="D5">
+        <v>2020</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>1</v>
       </c>
-      <c r="D5">
+      <c r="G5">
         <v>10.02</v>
-      </c>
-      <c r="E5" t="s">
-        <v>86</v>
-      </c>
-      <c r="F5" t="s">
-        <v>88</v>
-      </c>
-      <c r="G5" t="s">
-        <v>89</v>
       </c>
       <c r="H5" t="s">
         <v>90</v>
@@ -1730,36 +1778,36 @@
       <c r="I5" t="s">
         <v>92</v>
       </c>
-      <c r="J5">
+      <c r="J5" t="s">
+        <v>93</v>
+      </c>
+      <c r="K5" t="s">
+        <v>94</v>
+      </c>
+      <c r="L5" t="s">
+        <v>96</v>
+      </c>
+      <c r="M5">
         <v>1888</v>
       </c>
-      <c r="K5">
-        <v>0</v>
-      </c>
-      <c r="L5">
-        <v>0</v>
-      </c>
-      <c r="M5">
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5">
         <v>6</v>
       </c>
-      <c r="N5">
+      <c r="Q5">
         <v>1</v>
       </c>
-      <c r="O5">
+      <c r="R5">
         <v>3</v>
       </c>
-      <c r="P5">
+      <c r="S5">
         <v>14</v>
       </c>
-      <c r="Q5">
-        <v>0</v>
-      </c>
-      <c r="R5">
-        <v>0</v>
-      </c>
-      <c r="S5">
-        <v>0</v>
-      </c>
       <c r="T5">
         <v>0</v>
       </c>
@@ -1776,20 +1824,20 @@
         <v>0</v>
       </c>
       <c r="Y5">
+        <v>0</v>
+      </c>
+      <c r="Z5">
+        <v>0</v>
+      </c>
+      <c r="AA5">
+        <v>0</v>
+      </c>
+      <c r="AB5">
         <v>0.0953</v>
       </c>
-      <c r="Z5">
+      <c r="AC5">
         <v>0.5403</v>
       </c>
-      <c r="AA5">
-        <v>0</v>
-      </c>
-      <c r="AB5">
-        <v>0</v>
-      </c>
-      <c r="AC5">
-        <v>0</v>
-      </c>
       <c r="AD5">
         <v>0</v>
       </c>
@@ -1842,474 +1890,492 @@
         <v>0</v>
       </c>
       <c r="AU5">
+        <v>0</v>
+      </c>
+      <c r="AV5">
+        <v>0</v>
+      </c>
+      <c r="AW5">
+        <v>0</v>
+      </c>
+      <c r="AX5">
         <v>3854</v>
       </c>
-      <c r="AV5">
+      <c r="AY5">
         <v>122.4788</v>
       </c>
-      <c r="AW5">
+      <c r="AZ5">
         <v>0.0707026</v>
       </c>
-      <c r="AX5">
+      <c r="BA5">
         <v>37</v>
       </c>
-      <c r="AY5">
+      <c r="BB5">
         <v>1.1758</v>
       </c>
-      <c r="AZ5">
+      <c r="BC5">
         <v>6</v>
       </c>
-      <c r="BA5">
+      <c r="BD5">
         <v>0.1907</v>
       </c>
-      <c r="BB5">
+      <c r="BE5">
         <v>15</v>
       </c>
-      <c r="BC5">
+      <c r="BF5">
         <v>59</v>
       </c>
-      <c r="BD5">
+      <c r="BG5">
         <v>1.875</v>
       </c>
-      <c r="BE5">
+      <c r="BH5">
         <v>5907</v>
       </c>
-      <c r="BF5">
+      <c r="BI5">
         <v>1780</v>
       </c>
-      <c r="BG5">
+      <c r="BJ5">
         <v>56.5678</v>
       </c>
-      <c r="BH5">
+      <c r="BK5">
         <v>0.0720092</v>
       </c>
-      <c r="BI5">
+      <c r="BL5">
         <v>5575</v>
       </c>
-      <c r="BJ5">
-        <v>0</v>
-      </c>
-      <c r="BK5">
+      <c r="BM5">
+        <v>0</v>
+      </c>
+      <c r="BN5">
         <v>27</v>
       </c>
-      <c r="BL5">
+      <c r="BO5">
         <v>27</v>
       </c>
-      <c r="BM5">
-        <v>0</v>
-      </c>
-      <c r="BN5">
-        <v>0</v>
-      </c>
-      <c r="BO5">
-        <v>0</v>
-      </c>
       <c r="BP5">
+        <v>0</v>
+      </c>
+      <c r="BQ5">
+        <v>0</v>
+      </c>
+      <c r="BR5">
+        <v>0</v>
+      </c>
+      <c r="BS5">
         <v>0.8581</v>
       </c>
-      <c r="BQ5">
+      <c r="BT5">
         <v>2063</v>
       </c>
-      <c r="BR5">
+      <c r="BU5">
         <v>2808</v>
       </c>
-      <c r="BS5">
+      <c r="BV5">
         <v>11</v>
       </c>
-      <c r="BT5">
+      <c r="BW5">
         <v>2069</v>
       </c>
-      <c r="BU5">
+      <c r="BX5">
         <v>2565</v>
       </c>
-      <c r="BV5">
+      <c r="BY5">
         <v>14</v>
       </c>
-      <c r="BW5">
+      <c r="BZ5">
         <v>-6</v>
       </c>
-      <c r="BX5">
+      <c r="CA5">
         <v>243</v>
       </c>
-      <c r="BY5">
+      <c r="CB5">
         <v>-3</v>
       </c>
-      <c r="BZ5">
+      <c r="CC5">
         <v>3235</v>
       </c>
-      <c r="CA5">
+      <c r="CD5">
         <v>4157</v>
       </c>
-      <c r="CB5">
+      <c r="CE5">
         <v>22</v>
       </c>
-      <c r="CC5">
+      <c r="CF5">
         <v>3459</v>
       </c>
-      <c r="CD5">
+      <c r="CG5">
         <v>3416</v>
       </c>
-      <c r="CE5">
+      <c r="CH5">
         <v>21</v>
       </c>
-      <c r="CF5">
+      <c r="CI5">
         <v>-224</v>
       </c>
-      <c r="CG5">
+      <c r="CJ5">
         <v>741</v>
       </c>
-      <c r="CH5">
+      <c r="CK5">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:86">
+    <row r="6" spans="1:89">
       <c r="A6" s="1">
-        <v>2188</v>
+        <v>3604</v>
       </c>
       <c r="B6" t="s">
-        <v>85</v>
-      </c>
-      <c r="C6">
+        <v>88</v>
+      </c>
+      <c r="C6" t="s">
+        <v>89</v>
+      </c>
+      <c r="D6">
+        <v>2020</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>1</v>
       </c>
-      <c r="D6">
+      <c r="G6">
         <v>10.02</v>
       </c>
-      <c r="E6" t="s">
-        <v>87</v>
-      </c>
-      <c r="F6" t="s">
-        <v>88</v>
-      </c>
-      <c r="G6" t="s">
-        <v>89</v>
-      </c>
       <c r="H6" t="s">
+        <v>91</v>
+      </c>
+      <c r="I6" t="s">
+        <v>92</v>
+      </c>
+      <c r="J6" t="s">
+        <v>93</v>
+      </c>
+      <c r="K6" t="s">
+        <v>94</v>
+      </c>
+      <c r="L6" t="s">
+        <v>98</v>
+      </c>
+      <c r="M6">
+        <v>2095</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>3</v>
+      </c>
+      <c r="Q6">
+        <v>2</v>
+      </c>
+      <c r="R6">
+        <v>5</v>
+      </c>
+      <c r="S6">
+        <v>20</v>
+      </c>
+      <c r="T6">
+        <v>0</v>
+      </c>
+      <c r="U6">
+        <v>0</v>
+      </c>
+      <c r="V6">
+        <v>0</v>
+      </c>
+      <c r="W6">
+        <v>0</v>
+      </c>
+      <c r="X6">
+        <v>0</v>
+      </c>
+      <c r="Y6">
+        <v>0</v>
+      </c>
+      <c r="Z6">
+        <v>0</v>
+      </c>
+      <c r="AA6">
+        <v>0</v>
+      </c>
+      <c r="AB6">
+        <v>0.1432</v>
+      </c>
+      <c r="AC6">
+        <v>0.716</v>
+      </c>
+      <c r="AD6">
+        <v>0</v>
+      </c>
+      <c r="AE6">
+        <v>0</v>
+      </c>
+      <c r="AF6">
+        <v>0</v>
+      </c>
+      <c r="AG6">
+        <v>0</v>
+      </c>
+      <c r="AH6">
+        <v>0</v>
+      </c>
+      <c r="AI6">
+        <v>0</v>
+      </c>
+      <c r="AJ6">
+        <v>0</v>
+      </c>
+      <c r="AK6">
+        <v>0</v>
+      </c>
+      <c r="AL6">
+        <v>0</v>
+      </c>
+      <c r="AM6">
+        <v>0</v>
+      </c>
+      <c r="AN6">
+        <v>0</v>
+      </c>
+      <c r="AO6">
+        <v>0</v>
+      </c>
+      <c r="AP6">
+        <v>0</v>
+      </c>
+      <c r="AQ6">
+        <v>0</v>
+      </c>
+      <c r="AR6">
+        <v>0</v>
+      </c>
+      <c r="AS6">
+        <v>0</v>
+      </c>
+      <c r="AT6">
+        <v>0</v>
+      </c>
+      <c r="AU6">
+        <v>0</v>
+      </c>
+      <c r="AV6">
+        <v>0</v>
+      </c>
+      <c r="AW6">
+        <v>0</v>
+      </c>
+      <c r="AX6">
+        <v>1587</v>
+      </c>
+      <c r="AY6">
+        <v>45.4511</v>
+      </c>
+      <c r="AZ6">
+        <v>0.0311183</v>
+      </c>
+      <c r="BA6">
+        <v>49</v>
+      </c>
+      <c r="BB6">
+        <v>1.4033</v>
+      </c>
+      <c r="BC6">
+        <v>14</v>
+      </c>
+      <c r="BD6">
+        <v>0.401</v>
+      </c>
+      <c r="BE6">
+        <v>16</v>
+      </c>
+      <c r="BF6">
         <v>90</v>
       </c>
-      <c r="I6" t="s">
-        <v>94</v>
-      </c>
-      <c r="J6">
-        <v>2095</v>
-      </c>
-      <c r="K6">
-        <v>0</v>
-      </c>
-      <c r="L6">
-        <v>0</v>
-      </c>
-      <c r="M6">
-        <v>3</v>
-      </c>
-      <c r="N6">
-        <v>2</v>
-      </c>
-      <c r="O6">
-        <v>5</v>
-      </c>
-      <c r="P6">
-        <v>20</v>
-      </c>
-      <c r="Q6">
-        <v>0</v>
-      </c>
-      <c r="R6">
-        <v>0</v>
-      </c>
-      <c r="S6">
-        <v>0</v>
-      </c>
-      <c r="T6">
-        <v>0</v>
-      </c>
-      <c r="U6">
-        <v>0</v>
-      </c>
-      <c r="V6">
-        <v>0</v>
-      </c>
-      <c r="W6">
-        <v>0</v>
-      </c>
-      <c r="X6">
-        <v>0</v>
-      </c>
-      <c r="Y6">
-        <v>0.1432</v>
-      </c>
-      <c r="Z6">
-        <v>0.716</v>
-      </c>
-      <c r="AA6">
-        <v>0</v>
-      </c>
-      <c r="AB6">
-        <v>0</v>
-      </c>
-      <c r="AC6">
-        <v>0</v>
-      </c>
-      <c r="AD6">
-        <v>0</v>
-      </c>
-      <c r="AE6">
-        <v>0</v>
-      </c>
-      <c r="AF6">
-        <v>0</v>
-      </c>
-      <c r="AG6">
-        <v>0</v>
-      </c>
-      <c r="AH6">
-        <v>0</v>
-      </c>
-      <c r="AI6">
-        <v>0</v>
-      </c>
-      <c r="AJ6">
-        <v>0</v>
-      </c>
-      <c r="AK6">
-        <v>0</v>
-      </c>
-      <c r="AL6">
-        <v>0</v>
-      </c>
-      <c r="AM6">
-        <v>0</v>
-      </c>
-      <c r="AN6">
-        <v>0</v>
-      </c>
-      <c r="AO6">
-        <v>0</v>
-      </c>
-      <c r="AP6">
-        <v>0</v>
-      </c>
-      <c r="AQ6">
-        <v>0</v>
-      </c>
-      <c r="AR6">
-        <v>0</v>
-      </c>
-      <c r="AS6">
-        <v>0</v>
-      </c>
-      <c r="AT6">
-        <v>0</v>
-      </c>
-      <c r="AU6">
-        <v>1587</v>
-      </c>
-      <c r="AV6">
-        <v>45.4511</v>
-      </c>
-      <c r="AW6">
-        <v>0.0311183</v>
-      </c>
-      <c r="AX6">
-        <v>49</v>
-      </c>
-      <c r="AY6">
-        <v>1.4033</v>
-      </c>
-      <c r="AZ6">
-        <v>14</v>
-      </c>
-      <c r="BA6">
-        <v>0.401</v>
-      </c>
-      <c r="BB6">
-        <v>16</v>
-      </c>
-      <c r="BC6">
-        <v>90</v>
-      </c>
-      <c r="BD6">
+      <c r="BG6">
         <v>2.5776</v>
       </c>
-      <c r="BE6">
+      <c r="BH6">
         <v>6776</v>
       </c>
-      <c r="BF6">
+      <c r="BI6">
         <v>2227</v>
       </c>
-      <c r="BG6">
+      <c r="BJ6">
         <v>63.7804</v>
       </c>
-      <c r="BH6">
+      <c r="BK6">
         <v>0.0766947</v>
       </c>
-      <c r="BI6">
+      <c r="BL6">
         <v>6300</v>
       </c>
-      <c r="BJ6">
-        <v>0</v>
-      </c>
-      <c r="BK6">
+      <c r="BM6">
+        <v>0</v>
+      </c>
+      <c r="BN6">
         <v>34</v>
       </c>
-      <c r="BL6">
+      <c r="BO6">
         <v>34</v>
       </c>
-      <c r="BM6">
-        <v>0</v>
-      </c>
-      <c r="BN6">
-        <v>0</v>
-      </c>
-      <c r="BO6">
-        <v>0</v>
-      </c>
       <c r="BP6">
+        <v>0</v>
+      </c>
+      <c r="BQ6">
+        <v>0</v>
+      </c>
+      <c r="BR6">
+        <v>0</v>
+      </c>
+      <c r="BS6">
         <v>0.9737</v>
       </c>
-      <c r="BQ6">
+      <c r="BT6">
         <v>2223</v>
       </c>
-      <c r="BR6">
+      <c r="BU6">
         <v>2510</v>
-      </c>
-      <c r="BS6">
-        <v>14</v>
-      </c>
-      <c r="BT6">
-        <v>2155</v>
-      </c>
-      <c r="BU6">
-        <v>2768</v>
       </c>
       <c r="BV6">
         <v>14</v>
       </c>
       <c r="BW6">
+        <v>2155</v>
+      </c>
+      <c r="BX6">
+        <v>2768</v>
+      </c>
+      <c r="BY6">
+        <v>14</v>
+      </c>
+      <c r="BZ6">
         <v>68</v>
       </c>
-      <c r="BX6">
+      <c r="CA6">
         <v>-258</v>
       </c>
-      <c r="BY6">
-        <v>0</v>
-      </c>
-      <c r="BZ6">
+      <c r="CB6">
+        <v>0</v>
+      </c>
+      <c r="CC6">
         <v>3211</v>
       </c>
-      <c r="CA6">
+      <c r="CD6">
         <v>3340</v>
       </c>
-      <c r="CB6">
+      <c r="CE6">
         <v>21</v>
       </c>
-      <c r="CC6">
+      <c r="CF6">
         <v>3717</v>
       </c>
-      <c r="CD6">
+      <c r="CG6">
         <v>4101</v>
       </c>
-      <c r="CE6">
+      <c r="CH6">
         <v>24</v>
       </c>
-      <c r="CF6">
+      <c r="CI6">
         <v>-506</v>
       </c>
-      <c r="CG6">
+      <c r="CJ6">
         <v>-761</v>
       </c>
-      <c r="CH6">
+      <c r="CK6">
         <v>-3</v>
       </c>
     </row>
-    <row r="7" spans="1:86">
+    <row r="7" spans="1:89">
       <c r="A7" s="1">
-        <v>2277</v>
+        <v>3741</v>
       </c>
       <c r="B7" t="s">
-        <v>85</v>
-      </c>
-      <c r="C7">
+        <v>88</v>
+      </c>
+      <c r="C7" t="s">
+        <v>89</v>
+      </c>
+      <c r="D7">
+        <v>2020</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
         <v>1</v>
       </c>
-      <c r="D7">
+      <c r="G7">
         <v>10.02</v>
-      </c>
-      <c r="E7" t="s">
-        <v>86</v>
-      </c>
-      <c r="F7" t="s">
-        <v>88</v>
-      </c>
-      <c r="G7" t="s">
-        <v>89</v>
       </c>
       <c r="H7" t="s">
         <v>90</v>
       </c>
       <c r="I7" t="s">
+        <v>92</v>
+      </c>
+      <c r="J7" t="s">
+        <v>93</v>
+      </c>
+      <c r="K7" t="s">
         <v>94</v>
       </c>
-      <c r="J7">
+      <c r="L7" t="s">
+        <v>98</v>
+      </c>
+      <c r="M7">
         <v>1822</v>
       </c>
-      <c r="K7">
+      <c r="N7">
         <v>1</v>
       </c>
-      <c r="L7">
+      <c r="O7">
         <v>1</v>
       </c>
-      <c r="M7">
+      <c r="P7">
         <v>2</v>
       </c>
-      <c r="N7">
+      <c r="Q7">
         <v>10</v>
       </c>
-      <c r="O7">
+      <c r="R7">
         <v>12</v>
       </c>
-      <c r="P7">
+      <c r="S7">
         <v>7</v>
       </c>
-      <c r="Q7">
-        <v>0</v>
-      </c>
-      <c r="R7">
-        <v>0</v>
-      </c>
-      <c r="S7">
-        <v>0</v>
-      </c>
       <c r="T7">
         <v>0</v>
       </c>
       <c r="U7">
+        <v>0</v>
+      </c>
+      <c r="V7">
+        <v>0</v>
+      </c>
+      <c r="W7">
+        <v>0</v>
+      </c>
+      <c r="X7">
         <v>1</v>
       </c>
-      <c r="V7">
+      <c r="Y7">
         <v>1</v>
       </c>
-      <c r="W7">
-        <v>0</v>
-      </c>
-      <c r="X7">
-        <v>0</v>
-      </c>
-      <c r="Y7">
+      <c r="Z7">
+        <v>0</v>
+      </c>
+      <c r="AA7">
+        <v>0</v>
+      </c>
+      <c r="AB7">
         <v>0.3952</v>
       </c>
-      <c r="Z7">
+      <c r="AC7">
         <v>0.6257</v>
       </c>
-      <c r="AA7">
-        <v>0</v>
-      </c>
-      <c r="AB7">
-        <v>0</v>
-      </c>
-      <c r="AC7">
-        <v>0</v>
-      </c>
       <c r="AD7">
         <v>0</v>
       </c>
@@ -2362,187 +2428,196 @@
         <v>0</v>
       </c>
       <c r="AU7">
+        <v>0</v>
+      </c>
+      <c r="AV7">
+        <v>0</v>
+      </c>
+      <c r="AW7">
+        <v>0</v>
+      </c>
+      <c r="AX7">
         <v>2613</v>
       </c>
-      <c r="AV7">
+      <c r="AY7">
         <v>86.0483</v>
       </c>
-      <c r="AW7">
+      <c r="AZ7">
         <v>0.0526602</v>
       </c>
-      <c r="AX7">
+      <c r="BA7">
         <v>37</v>
       </c>
-      <c r="AY7">
+      <c r="BB7">
         <v>1.2184</v>
       </c>
-      <c r="AZ7">
+      <c r="BC7">
         <v>4</v>
       </c>
-      <c r="BA7">
+      <c r="BD7">
         <v>0.1317</v>
       </c>
-      <c r="BB7">
+      <c r="BE7">
         <v>13</v>
       </c>
-      <c r="BC7">
+      <c r="BF7">
         <v>66</v>
       </c>
-      <c r="BD7">
+      <c r="BG7">
         <v>2.1734</v>
       </c>
-      <c r="BE7">
+      <c r="BH7">
         <v>7723</v>
       </c>
-      <c r="BF7">
+      <c r="BI7">
         <v>3731</v>
       </c>
-      <c r="BG7">
+      <c r="BJ7">
         <v>122.865</v>
       </c>
-      <c r="BH7">
+      <c r="BK7">
         <v>0.10133</v>
       </c>
-      <c r="BI7">
+      <c r="BL7">
         <v>6725</v>
       </c>
-      <c r="BJ7">
-        <v>0</v>
-      </c>
-      <c r="BK7">
+      <c r="BM7">
+        <v>0</v>
+      </c>
+      <c r="BN7">
         <v>24</v>
       </c>
-      <c r="BL7">
+      <c r="BO7">
         <v>24</v>
       </c>
-      <c r="BM7">
-        <v>0</v>
-      </c>
-      <c r="BN7">
-        <v>0</v>
-      </c>
-      <c r="BO7">
-        <v>0</v>
-      </c>
       <c r="BP7">
+        <v>0</v>
+      </c>
+      <c r="BQ7">
+        <v>0</v>
+      </c>
+      <c r="BR7">
+        <v>0</v>
+      </c>
+      <c r="BS7">
         <v>0.7903</v>
       </c>
-      <c r="BQ7">
+      <c r="BT7">
         <v>2395</v>
       </c>
-      <c r="BR7">
+      <c r="BU7">
         <v>2851</v>
       </c>
-      <c r="BS7">
+      <c r="BV7">
         <v>10</v>
       </c>
-      <c r="BT7">
+      <c r="BW7">
         <v>2104</v>
       </c>
-      <c r="BU7">
+      <c r="BX7">
         <v>2878</v>
       </c>
-      <c r="BV7">
+      <c r="BY7">
         <v>19</v>
       </c>
-      <c r="BW7">
+      <c r="BZ7">
         <v>291</v>
       </c>
-      <c r="BX7">
+      <c r="CA7">
         <v>-27</v>
       </c>
-      <c r="BY7">
+      <c r="CB7">
         <v>-9</v>
       </c>
-      <c r="BZ7">
+      <c r="CC7">
         <v>3696</v>
       </c>
-      <c r="CA7">
+      <c r="CD7">
         <v>4063</v>
       </c>
-      <c r="CB7">
+      <c r="CE7">
         <v>19</v>
       </c>
-      <c r="CC7">
+      <c r="CF7">
         <v>3232</v>
       </c>
-      <c r="CD7">
+      <c r="CG7">
         <v>4463</v>
       </c>
-      <c r="CE7">
+      <c r="CH7">
         <v>32</v>
       </c>
-      <c r="CF7">
+      <c r="CI7">
         <v>464</v>
       </c>
-      <c r="CG7">
+      <c r="CJ7">
         <v>-400</v>
       </c>
-      <c r="CH7">
+      <c r="CK7">
         <v>-13</v>
       </c>
     </row>
-    <row r="8" spans="1:86">
+    <row r="8" spans="1:89">
       <c r="A8" s="1">
-        <v>2793</v>
+        <v>5025</v>
       </c>
       <c r="B8" t="s">
-        <v>85</v>
-      </c>
-      <c r="C8">
+        <v>88</v>
+      </c>
+      <c r="C8" t="s">
+        <v>89</v>
+      </c>
+      <c r="D8">
+        <v>2020</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
         <v>1</v>
       </c>
-      <c r="D8">
+      <c r="G8">
         <v>10.03</v>
-      </c>
-      <c r="E8" t="s">
-        <v>86</v>
-      </c>
-      <c r="F8" t="s">
-        <v>88</v>
-      </c>
-      <c r="G8" t="s">
-        <v>89</v>
       </c>
       <c r="H8" t="s">
         <v>90</v>
       </c>
       <c r="I8" t="s">
+        <v>92</v>
+      </c>
+      <c r="J8" t="s">
         <v>93</v>
       </c>
-      <c r="J8">
+      <c r="K8" t="s">
+        <v>94</v>
+      </c>
+      <c r="L8" t="s">
+        <v>97</v>
+      </c>
+      <c r="M8">
         <v>1617</v>
       </c>
-      <c r="K8">
+      <c r="N8">
         <v>1</v>
       </c>
-      <c r="L8">
+      <c r="O8">
         <v>3</v>
       </c>
-      <c r="M8">
+      <c r="P8">
         <v>3</v>
       </c>
-      <c r="N8">
+      <c r="Q8">
         <v>5</v>
       </c>
-      <c r="O8">
+      <c r="R8">
         <v>15</v>
       </c>
-      <c r="P8">
+      <c r="S8">
         <v>9</v>
       </c>
-      <c r="Q8">
+      <c r="T8">
         <v>1</v>
       </c>
-      <c r="R8">
-        <v>0</v>
-      </c>
-      <c r="S8">
-        <v>0</v>
-      </c>
-      <c r="T8">
-        <v>0</v>
-      </c>
       <c r="U8">
         <v>0</v>
       </c>
@@ -2556,20 +2631,20 @@
         <v>0</v>
       </c>
       <c r="Y8">
+        <v>0</v>
+      </c>
+      <c r="Z8">
+        <v>0</v>
+      </c>
+      <c r="AA8">
+        <v>0</v>
+      </c>
+      <c r="AB8">
         <v>0.5566</v>
       </c>
-      <c r="Z8">
+      <c r="AC8">
         <v>0.8905</v>
       </c>
-      <c r="AA8">
-        <v>0</v>
-      </c>
-      <c r="AB8">
-        <v>0</v>
-      </c>
-      <c r="AC8">
-        <v>0</v>
-      </c>
       <c r="AD8">
         <v>0</v>
       </c>
@@ -2616,220 +2691,229 @@
         <v>0</v>
       </c>
       <c r="AS8">
+        <v>0</v>
+      </c>
+      <c r="AT8">
+        <v>0</v>
+      </c>
+      <c r="AU8">
+        <v>0</v>
+      </c>
+      <c r="AV8">
         <v>1</v>
       </c>
-      <c r="AT8">
-        <v>0</v>
-      </c>
-      <c r="AU8">
+      <c r="AW8">
+        <v>0</v>
+      </c>
+      <c r="AX8">
         <v>2591</v>
       </c>
-      <c r="AV8">
+      <c r="AY8">
         <v>96.14100000000001</v>
       </c>
-      <c r="AW8">
+      <c r="AZ8">
         <v>0.05204590000000001</v>
       </c>
-      <c r="AX8">
+      <c r="BA8">
         <v>35</v>
       </c>
-      <c r="AY8">
+      <c r="BB8">
         <v>1.2987</v>
       </c>
-      <c r="AZ8">
+      <c r="BC8">
         <v>4</v>
       </c>
-      <c r="BA8">
+      <c r="BD8">
         <v>0.1484</v>
       </c>
-      <c r="BB8">
+      <c r="BE8">
         <v>11</v>
       </c>
-      <c r="BC8">
+      <c r="BF8">
         <v>66</v>
       </c>
-      <c r="BD8">
+      <c r="BG8">
         <v>2.449</v>
       </c>
-      <c r="BE8">
+      <c r="BH8">
         <v>6903</v>
       </c>
-      <c r="BF8">
+      <c r="BI8">
         <v>3329</v>
       </c>
-      <c r="BG8">
+      <c r="BJ8">
         <v>123.525</v>
       </c>
-      <c r="BH8">
+      <c r="BK8">
         <v>0.106928</v>
       </c>
-      <c r="BI8">
+      <c r="BL8">
         <v>5525</v>
       </c>
-      <c r="BJ8">
-        <v>0</v>
-      </c>
-      <c r="BK8">
+      <c r="BM8">
+        <v>0</v>
+      </c>
+      <c r="BN8">
         <v>30</v>
       </c>
-      <c r="BL8">
+      <c r="BO8">
         <v>30</v>
       </c>
-      <c r="BM8">
-        <v>0</v>
-      </c>
-      <c r="BN8">
-        <v>0</v>
-      </c>
-      <c r="BO8">
-        <v>0</v>
-      </c>
       <c r="BP8">
+        <v>0</v>
+      </c>
+      <c r="BQ8">
+        <v>0</v>
+      </c>
+      <c r="BR8">
+        <v>0</v>
+      </c>
+      <c r="BS8">
         <v>1.1132</v>
       </c>
-      <c r="BQ8">
+      <c r="BT8">
         <v>2076</v>
       </c>
-      <c r="BR8">
+      <c r="BU8">
         <v>2302</v>
       </c>
-      <c r="BS8">
+      <c r="BV8">
         <v>12</v>
       </c>
-      <c r="BT8">
+      <c r="BW8">
         <v>1884</v>
       </c>
-      <c r="BU8">
+      <c r="BX8">
         <v>2822</v>
       </c>
-      <c r="BV8">
+      <c r="BY8">
         <v>1</v>
       </c>
-      <c r="BW8">
+      <c r="BZ8">
         <v>192</v>
       </c>
-      <c r="BX8">
+      <c r="CA8">
         <v>-520</v>
       </c>
-      <c r="BY8">
+      <c r="CB8">
         <v>11</v>
       </c>
-      <c r="BZ8">
+      <c r="CC8">
         <v>3357</v>
       </c>
-      <c r="CA8">
+      <c r="CD8">
         <v>3624</v>
       </c>
-      <c r="CB8">
+      <c r="CE8">
         <v>22</v>
       </c>
-      <c r="CC8">
+      <c r="CF8">
         <v>2990</v>
       </c>
-      <c r="CD8">
+      <c r="CG8">
         <v>4340</v>
       </c>
-      <c r="CE8">
+      <c r="CH8">
         <v>3</v>
       </c>
-      <c r="CF8">
+      <c r="CI8">
         <v>367</v>
       </c>
-      <c r="CG8">
+      <c r="CJ8">
         <v>-716</v>
       </c>
-      <c r="CH8">
+      <c r="CK8">
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:86">
+    <row r="9" spans="1:89">
       <c r="A9" s="1">
-        <v>2937</v>
+        <v>5229</v>
       </c>
       <c r="B9" t="s">
-        <v>85</v>
-      </c>
-      <c r="C9">
+        <v>88</v>
+      </c>
+      <c r="C9" t="s">
+        <v>89</v>
+      </c>
+      <c r="D9">
+        <v>2020</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
         <v>1</v>
       </c>
-      <c r="D9">
+      <c r="G9">
         <v>10.03</v>
-      </c>
-      <c r="E9" t="s">
-        <v>86</v>
-      </c>
-      <c r="F9" t="s">
-        <v>88</v>
-      </c>
-      <c r="G9" t="s">
-        <v>89</v>
       </c>
       <c r="H9" t="s">
         <v>90</v>
       </c>
       <c r="I9" t="s">
+        <v>92</v>
+      </c>
+      <c r="J9" t="s">
+        <v>93</v>
+      </c>
+      <c r="K9" t="s">
         <v>94</v>
       </c>
-      <c r="J9">
+      <c r="L9" t="s">
+        <v>98</v>
+      </c>
+      <c r="M9">
         <v>2053</v>
       </c>
-      <c r="K9">
+      <c r="N9">
         <v>1</v>
       </c>
-      <c r="L9">
+      <c r="O9">
         <v>1</v>
       </c>
-      <c r="M9">
+      <c r="P9">
         <v>1</v>
       </c>
-      <c r="N9">
+      <c r="Q9">
         <v>3</v>
       </c>
-      <c r="O9">
+      <c r="R9">
         <v>13</v>
       </c>
-      <c r="P9">
+      <c r="S9">
         <v>4</v>
       </c>
-      <c r="Q9">
-        <v>0</v>
-      </c>
-      <c r="R9">
-        <v>0</v>
-      </c>
-      <c r="S9">
-        <v>0</v>
-      </c>
       <c r="T9">
         <v>0</v>
       </c>
       <c r="U9">
+        <v>0</v>
+      </c>
+      <c r="V9">
+        <v>0</v>
+      </c>
+      <c r="W9">
+        <v>0</v>
+      </c>
+      <c r="X9">
         <v>1</v>
       </c>
-      <c r="V9">
+      <c r="Y9">
         <v>1</v>
       </c>
-      <c r="W9">
-        <v>0</v>
-      </c>
-      <c r="X9">
-        <v>0</v>
-      </c>
-      <c r="Y9">
+      <c r="Z9">
+        <v>0</v>
+      </c>
+      <c r="AA9">
+        <v>0</v>
+      </c>
+      <c r="AB9">
         <v>0.3799</v>
       </c>
-      <c r="Z9">
+      <c r="AC9">
         <v>0.4968</v>
       </c>
-      <c r="AA9">
-        <v>0</v>
-      </c>
-      <c r="AB9">
-        <v>0</v>
-      </c>
-      <c r="AC9">
-        <v>0</v>
-      </c>
       <c r="AD9">
         <v>0</v>
       </c>
@@ -2882,184 +2966,193 @@
         <v>0</v>
       </c>
       <c r="AU9">
+        <v>0</v>
+      </c>
+      <c r="AV9">
+        <v>0</v>
+      </c>
+      <c r="AW9">
+        <v>0</v>
+      </c>
+      <c r="AX9">
         <v>1436</v>
       </c>
-      <c r="AV9">
+      <c r="AY9">
         <v>41.9679</v>
       </c>
-      <c r="AW9">
+      <c r="AZ9">
         <v>0.0283806</v>
       </c>
-      <c r="AX9">
+      <c r="BA9">
         <v>48</v>
       </c>
-      <c r="AY9">
+      <c r="BB9">
         <v>1.4028</v>
       </c>
-      <c r="AZ9">
+      <c r="BC9">
         <v>7</v>
       </c>
-      <c r="BA9">
+      <c r="BD9">
         <v>0.2046</v>
       </c>
-      <c r="BB9">
+      <c r="BE9">
         <v>14</v>
       </c>
-      <c r="BC9">
+      <c r="BF9">
         <v>76</v>
       </c>
-      <c r="BD9">
+      <c r="BG9">
         <v>2.2211</v>
       </c>
-      <c r="BE9">
+      <c r="BH9">
         <v>8008</v>
       </c>
-      <c r="BF9">
+      <c r="BI9">
         <v>3544</v>
       </c>
-      <c r="BG9">
+      <c r="BJ9">
         <v>103.5753</v>
       </c>
-      <c r="BH9">
+      <c r="BK9">
         <v>0.08263380000000001</v>
       </c>
-      <c r="BI9">
+      <c r="BL9">
         <v>6850</v>
       </c>
-      <c r="BJ9">
-        <v>0</v>
-      </c>
-      <c r="BK9">
+      <c r="BM9">
+        <v>0</v>
+      </c>
+      <c r="BN9">
         <v>29</v>
       </c>
-      <c r="BL9">
+      <c r="BO9">
         <v>29</v>
       </c>
-      <c r="BM9">
-        <v>0</v>
-      </c>
-      <c r="BN9">
-        <v>0</v>
-      </c>
-      <c r="BO9">
-        <v>0</v>
-      </c>
       <c r="BP9">
+        <v>0</v>
+      </c>
+      <c r="BQ9">
+        <v>0</v>
+      </c>
+      <c r="BR9">
+        <v>0</v>
+      </c>
+      <c r="BS9">
         <v>0.8475</v>
       </c>
-      <c r="BQ9">
+      <c r="BT9">
         <v>2517</v>
       </c>
-      <c r="BR9">
+      <c r="BU9">
         <v>2820</v>
       </c>
-      <c r="BS9">
+      <c r="BV9">
         <v>13</v>
       </c>
-      <c r="BT9">
+      <c r="BW9">
         <v>2088</v>
       </c>
-      <c r="BU9">
+      <c r="BX9">
         <v>2650</v>
       </c>
-      <c r="BV9">
+      <c r="BY9">
         <v>16</v>
       </c>
-      <c r="BW9">
+      <c r="BZ9">
         <v>429</v>
       </c>
-      <c r="BX9">
+      <c r="CA9">
         <v>170</v>
       </c>
-      <c r="BY9">
+      <c r="CB9">
         <v>-3</v>
       </c>
-      <c r="BZ9">
+      <c r="CC9">
         <v>3833</v>
       </c>
-      <c r="CA9">
+      <c r="CD9">
         <v>4570</v>
       </c>
-      <c r="CB9">
+      <c r="CE9">
         <v>25</v>
       </c>
-      <c r="CC9">
+      <c r="CF9">
         <v>3082</v>
       </c>
-      <c r="CD9">
+      <c r="CG9">
         <v>3924</v>
       </c>
-      <c r="CE9">
+      <c r="CH9">
         <v>20</v>
       </c>
-      <c r="CF9">
+      <c r="CI9">
         <v>751</v>
       </c>
-      <c r="CG9">
+      <c r="CJ9">
         <v>646</v>
       </c>
-      <c r="CH9">
+      <c r="CK9">
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:86">
+    <row r="10" spans="1:89">
       <c r="A10" s="1">
-        <v>3573</v>
+        <v>6609</v>
       </c>
       <c r="B10" t="s">
-        <v>85</v>
-      </c>
-      <c r="C10">
+        <v>88</v>
+      </c>
+      <c r="C10" t="s">
+        <v>89</v>
+      </c>
+      <c r="D10">
+        <v>2020</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
         <v>1</v>
       </c>
-      <c r="D10">
+      <c r="G10">
         <v>10.03</v>
-      </c>
-      <c r="E10" t="s">
-        <v>86</v>
-      </c>
-      <c r="F10" t="s">
-        <v>88</v>
-      </c>
-      <c r="G10" t="s">
-        <v>89</v>
       </c>
       <c r="H10" t="s">
         <v>90</v>
       </c>
       <c r="I10" t="s">
+        <v>92</v>
+      </c>
+      <c r="J10" t="s">
+        <v>93</v>
+      </c>
+      <c r="K10" t="s">
         <v>94</v>
       </c>
-      <c r="J10">
+      <c r="L10" t="s">
+        <v>98</v>
+      </c>
+      <c r="M10">
         <v>1794</v>
       </c>
-      <c r="K10">
-        <v>0</v>
-      </c>
-      <c r="L10">
-        <v>0</v>
-      </c>
-      <c r="M10">
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+      <c r="P10">
         <v>5</v>
       </c>
-      <c r="N10">
+      <c r="Q10">
         <v>4</v>
       </c>
-      <c r="O10">
+      <c r="R10">
         <v>4</v>
       </c>
-      <c r="P10">
+      <c r="S10">
         <v>12</v>
       </c>
-      <c r="Q10">
-        <v>0</v>
-      </c>
-      <c r="R10">
-        <v>0</v>
-      </c>
-      <c r="S10">
-        <v>0</v>
-      </c>
       <c r="T10">
         <v>0</v>
       </c>
@@ -3073,23 +3166,23 @@
         <v>0</v>
       </c>
       <c r="X10">
+        <v>0</v>
+      </c>
+      <c r="Y10">
+        <v>0</v>
+      </c>
+      <c r="Z10">
+        <v>0</v>
+      </c>
+      <c r="AA10">
         <v>1</v>
       </c>
-      <c r="Y10">
+      <c r="AB10">
         <v>0.1338</v>
       </c>
-      <c r="Z10">
+      <c r="AC10">
         <v>0.5351</v>
       </c>
-      <c r="AA10">
-        <v>0</v>
-      </c>
-      <c r="AB10">
-        <v>0</v>
-      </c>
-      <c r="AC10">
-        <v>0</v>
-      </c>
       <c r="AD10">
         <v>0</v>
       </c>
@@ -3142,441 +3235,459 @@
         <v>0</v>
       </c>
       <c r="AU10">
+        <v>0</v>
+      </c>
+      <c r="AV10">
+        <v>0</v>
+      </c>
+      <c r="AW10">
+        <v>0</v>
+      </c>
+      <c r="AX10">
         <v>1843</v>
       </c>
-      <c r="AV10">
+      <c r="AY10">
         <v>61.6388</v>
       </c>
-      <c r="AW10">
+      <c r="AZ10">
         <v>0.05277630000000001</v>
       </c>
-      <c r="AX10">
+      <c r="BA10">
         <v>43</v>
       </c>
-      <c r="AY10">
+      <c r="BB10">
         <v>1.4381</v>
       </c>
-      <c r="AZ10">
+      <c r="BC10">
         <v>13</v>
       </c>
-      <c r="BA10">
+      <c r="BD10">
         <v>0.4348</v>
       </c>
-      <c r="BB10">
+      <c r="BE10">
         <v>17</v>
       </c>
-      <c r="BC10">
+      <c r="BF10">
         <v>77</v>
       </c>
-      <c r="BD10">
+      <c r="BG10">
         <v>2.5753</v>
       </c>
-      <c r="BE10">
+      <c r="BH10">
         <v>6084</v>
       </c>
-      <c r="BF10">
+      <c r="BI10">
         <v>2149</v>
       </c>
-      <c r="BG10">
+      <c r="BJ10">
         <v>71.8729</v>
       </c>
-      <c r="BH10">
+      <c r="BK10">
         <v>0.08395030000000001</v>
       </c>
-      <c r="BI10">
+      <c r="BL10">
         <v>5475</v>
       </c>
-      <c r="BJ10">
-        <v>0</v>
-      </c>
-      <c r="BK10">
+      <c r="BM10">
+        <v>0</v>
+      </c>
+      <c r="BN10">
         <v>35</v>
       </c>
-      <c r="BL10">
+      <c r="BO10">
         <v>35</v>
       </c>
-      <c r="BM10">
-        <v>0</v>
-      </c>
-      <c r="BN10">
-        <v>0</v>
-      </c>
-      <c r="BO10">
-        <v>0</v>
-      </c>
       <c r="BP10">
+        <v>0</v>
+      </c>
+      <c r="BQ10">
+        <v>0</v>
+      </c>
+      <c r="BR10">
+        <v>0</v>
+      </c>
+      <c r="BS10">
         <v>1.1706</v>
       </c>
-      <c r="BQ10">
+      <c r="BT10">
         <v>2188</v>
       </c>
-      <c r="BR10">
+      <c r="BU10">
         <v>2360</v>
       </c>
-      <c r="BS10">
+      <c r="BV10">
         <v>13</v>
       </c>
-      <c r="BT10">
+      <c r="BW10">
         <v>2614</v>
       </c>
-      <c r="BU10">
+      <c r="BX10">
         <v>2679</v>
       </c>
-      <c r="BV10">
+      <c r="BY10">
         <v>15</v>
       </c>
-      <c r="BW10">
+      <c r="BZ10">
         <v>-426</v>
       </c>
-      <c r="BX10">
+      <c r="CA10">
         <v>-319</v>
       </c>
-      <c r="BY10">
+      <c r="CB10">
         <v>-2</v>
       </c>
-      <c r="BZ10">
+      <c r="CC10">
         <v>3262</v>
       </c>
-      <c r="CA10">
+      <c r="CD10">
         <v>3334</v>
-      </c>
-      <c r="CB10">
-        <v>24</v>
-      </c>
-      <c r="CC10">
-        <v>4085</v>
-      </c>
-      <c r="CD10">
-        <v>4468</v>
       </c>
       <c r="CE10">
         <v>24</v>
       </c>
       <c r="CF10">
+        <v>4085</v>
+      </c>
+      <c r="CG10">
+        <v>4468</v>
+      </c>
+      <c r="CH10">
+        <v>24</v>
+      </c>
+      <c r="CI10">
         <v>-823</v>
       </c>
-      <c r="CG10">
+      <c r="CJ10">
         <v>-1134</v>
       </c>
-      <c r="CH10">
+      <c r="CK10">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:86">
+    <row r="11" spans="1:89">
       <c r="A11" s="1">
-        <v>3724</v>
+        <v>6988</v>
       </c>
       <c r="B11" t="s">
-        <v>85</v>
-      </c>
-      <c r="C11">
+        <v>88</v>
+      </c>
+      <c r="C11" t="s">
+        <v>89</v>
+      </c>
+      <c r="D11">
+        <v>2020</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
         <v>1</v>
       </c>
-      <c r="D11">
+      <c r="G11">
         <v>10.03</v>
       </c>
-      <c r="E11" t="s">
-        <v>87</v>
-      </c>
-      <c r="F11" t="s">
+      <c r="H11" t="s">
+        <v>91</v>
+      </c>
+      <c r="I11" t="s">
+        <v>92</v>
+      </c>
+      <c r="J11" t="s">
+        <v>93</v>
+      </c>
+      <c r="K11" t="s">
+        <v>94</v>
+      </c>
+      <c r="L11" t="s">
+        <v>99</v>
+      </c>
+      <c r="M11">
+        <v>1855</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <v>5</v>
+      </c>
+      <c r="Q11">
+        <v>6</v>
+      </c>
+      <c r="R11">
+        <v>7</v>
+      </c>
+      <c r="S11">
+        <v>22</v>
+      </c>
+      <c r="T11">
+        <v>0</v>
+      </c>
+      <c r="U11">
+        <v>0</v>
+      </c>
+      <c r="V11">
+        <v>0</v>
+      </c>
+      <c r="W11">
+        <v>0</v>
+      </c>
+      <c r="X11">
+        <v>0</v>
+      </c>
+      <c r="Y11">
+        <v>0</v>
+      </c>
+      <c r="Z11">
+        <v>0</v>
+      </c>
+      <c r="AA11">
+        <v>0</v>
+      </c>
+      <c r="AB11">
+        <v>0.2264</v>
+      </c>
+      <c r="AC11">
+        <v>0.9379999999999999</v>
+      </c>
+      <c r="AD11">
+        <v>0</v>
+      </c>
+      <c r="AE11">
+        <v>0</v>
+      </c>
+      <c r="AF11">
+        <v>0</v>
+      </c>
+      <c r="AG11">
+        <v>0</v>
+      </c>
+      <c r="AH11">
+        <v>0</v>
+      </c>
+      <c r="AI11">
+        <v>0</v>
+      </c>
+      <c r="AJ11">
+        <v>0</v>
+      </c>
+      <c r="AK11">
+        <v>0</v>
+      </c>
+      <c r="AL11">
+        <v>0</v>
+      </c>
+      <c r="AM11">
+        <v>0</v>
+      </c>
+      <c r="AN11">
+        <v>0</v>
+      </c>
+      <c r="AO11">
+        <v>0</v>
+      </c>
+      <c r="AP11">
+        <v>0</v>
+      </c>
+      <c r="AQ11">
+        <v>0</v>
+      </c>
+      <c r="AR11">
+        <v>0</v>
+      </c>
+      <c r="AS11">
+        <v>0</v>
+      </c>
+      <c r="AT11">
+        <v>0</v>
+      </c>
+      <c r="AU11">
+        <v>0</v>
+      </c>
+      <c r="AV11">
+        <v>0</v>
+      </c>
+      <c r="AW11">
+        <v>0</v>
+      </c>
+      <c r="AX11">
+        <v>5089</v>
+      </c>
+      <c r="AY11">
+        <v>164.6038</v>
+      </c>
+      <c r="AZ11">
+        <v>0.0965526</v>
+      </c>
+      <c r="BA11">
+        <v>29</v>
+      </c>
+      <c r="BB11">
+        <v>0.9379999999999999</v>
+      </c>
+      <c r="BC11">
+        <v>6</v>
+      </c>
+      <c r="BD11">
+        <v>0.1941</v>
+      </c>
+      <c r="BE11">
+        <v>12</v>
+      </c>
+      <c r="BF11">
+        <v>52</v>
+      </c>
+      <c r="BG11">
+        <v>1.6819</v>
+      </c>
+      <c r="BH11">
+        <v>5815</v>
+      </c>
+      <c r="BI11">
+        <v>1755</v>
+      </c>
+      <c r="BJ11">
+        <v>56.7655</v>
+      </c>
+      <c r="BK11">
+        <v>0.0593173</v>
+      </c>
+      <c r="BL11">
+        <v>5300</v>
+      </c>
+      <c r="BM11">
+        <v>0</v>
+      </c>
+      <c r="BN11">
+        <v>6</v>
+      </c>
+      <c r="BO11">
+        <v>6</v>
+      </c>
+      <c r="BP11">
+        <v>0</v>
+      </c>
+      <c r="BQ11">
+        <v>0</v>
+      </c>
+      <c r="BR11">
+        <v>0</v>
+      </c>
+      <c r="BS11">
+        <v>0.1941</v>
+      </c>
+      <c r="BT11">
+        <v>2083</v>
+      </c>
+      <c r="BU11">
+        <v>3021</v>
+      </c>
+      <c r="BV11">
+        <v>0</v>
+      </c>
+      <c r="BW11">
+        <v>2273</v>
+      </c>
+      <c r="BX11">
+        <v>2227</v>
+      </c>
+      <c r="BY11">
+        <v>16</v>
+      </c>
+      <c r="BZ11">
+        <v>-190</v>
+      </c>
+      <c r="CA11">
+        <v>794</v>
+      </c>
+      <c r="CB11">
+        <v>-16</v>
+      </c>
+      <c r="CC11">
+        <v>3117</v>
+      </c>
+      <c r="CD11">
+        <v>4035</v>
+      </c>
+      <c r="CE11">
+        <v>1</v>
+      </c>
+      <c r="CF11">
+        <v>3498</v>
+      </c>
+      <c r="CG11">
+        <v>3454</v>
+      </c>
+      <c r="CH11">
+        <v>23</v>
+      </c>
+      <c r="CI11">
+        <v>-381</v>
+      </c>
+      <c r="CJ11">
+        <v>581</v>
+      </c>
+      <c r="CK11">
+        <v>-22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:89">
+      <c r="A12" s="1">
+        <v>8356</v>
+      </c>
+      <c r="B12" t="s">
         <v>88</v>
       </c>
-      <c r="G11" t="s">
+      <c r="C12" t="s">
         <v>89</v>
       </c>
-      <c r="H11" t="s">
-        <v>90</v>
-      </c>
-      <c r="I11" t="s">
-        <v>95</v>
-      </c>
-      <c r="J11">
-        <v>1855</v>
-      </c>
-      <c r="K11">
-        <v>0</v>
-      </c>
-      <c r="L11">
-        <v>0</v>
-      </c>
-      <c r="M11">
-        <v>5</v>
-      </c>
-      <c r="N11">
-        <v>6</v>
-      </c>
-      <c r="O11">
-        <v>7</v>
-      </c>
-      <c r="P11">
-        <v>22</v>
-      </c>
-      <c r="Q11">
-        <v>0</v>
-      </c>
-      <c r="R11">
-        <v>0</v>
-      </c>
-      <c r="S11">
-        <v>0</v>
-      </c>
-      <c r="T11">
-        <v>0</v>
-      </c>
-      <c r="U11">
-        <v>0</v>
-      </c>
-      <c r="V11">
-        <v>0</v>
-      </c>
-      <c r="W11">
-        <v>0</v>
-      </c>
-      <c r="X11">
-        <v>0</v>
-      </c>
-      <c r="Y11">
-        <v>0.2264</v>
-      </c>
-      <c r="Z11">
-        <v>0.9379999999999999</v>
-      </c>
-      <c r="AA11">
-        <v>0</v>
-      </c>
-      <c r="AB11">
-        <v>0</v>
-      </c>
-      <c r="AC11">
-        <v>0</v>
-      </c>
-      <c r="AD11">
-        <v>0</v>
-      </c>
-      <c r="AE11">
-        <v>0</v>
-      </c>
-      <c r="AF11">
-        <v>0</v>
-      </c>
-      <c r="AG11">
-        <v>0</v>
-      </c>
-      <c r="AH11">
-        <v>0</v>
-      </c>
-      <c r="AI11">
-        <v>0</v>
-      </c>
-      <c r="AJ11">
-        <v>0</v>
-      </c>
-      <c r="AK11">
-        <v>0</v>
-      </c>
-      <c r="AL11">
-        <v>0</v>
-      </c>
-      <c r="AM11">
-        <v>0</v>
-      </c>
-      <c r="AN11">
-        <v>0</v>
-      </c>
-      <c r="AO11">
-        <v>0</v>
-      </c>
-      <c r="AP11">
-        <v>0</v>
-      </c>
-      <c r="AQ11">
-        <v>0</v>
-      </c>
-      <c r="AR11">
-        <v>0</v>
-      </c>
-      <c r="AS11">
-        <v>0</v>
-      </c>
-      <c r="AT11">
-        <v>0</v>
-      </c>
-      <c r="AU11">
-        <v>5089</v>
-      </c>
-      <c r="AV11">
-        <v>164.6038</v>
-      </c>
-      <c r="AW11">
-        <v>0.0965526</v>
-      </c>
-      <c r="AX11">
-        <v>29</v>
-      </c>
-      <c r="AY11">
-        <v>0.9379999999999999</v>
-      </c>
-      <c r="AZ11">
-        <v>6</v>
-      </c>
-      <c r="BA11">
-        <v>0.1941</v>
-      </c>
-      <c r="BB11">
-        <v>12</v>
-      </c>
-      <c r="BC11">
-        <v>52</v>
-      </c>
-      <c r="BD11">
-        <v>1.6819</v>
-      </c>
-      <c r="BE11">
-        <v>5815</v>
-      </c>
-      <c r="BF11">
-        <v>1755</v>
-      </c>
-      <c r="BG11">
-        <v>56.7655</v>
-      </c>
-      <c r="BH11">
-        <v>0.0593173</v>
-      </c>
-      <c r="BI11">
-        <v>5300</v>
-      </c>
-      <c r="BJ11">
-        <v>0</v>
-      </c>
-      <c r="BK11">
-        <v>6</v>
-      </c>
-      <c r="BL11">
-        <v>6</v>
-      </c>
-      <c r="BM11">
-        <v>0</v>
-      </c>
-      <c r="BN11">
-        <v>0</v>
-      </c>
-      <c r="BO11">
-        <v>0</v>
-      </c>
-      <c r="BP11">
-        <v>0.1941</v>
-      </c>
-      <c r="BQ11">
-        <v>2083</v>
-      </c>
-      <c r="BR11">
-        <v>3021</v>
-      </c>
-      <c r="BS11">
-        <v>0</v>
-      </c>
-      <c r="BT11">
-        <v>2273</v>
-      </c>
-      <c r="BU11">
-        <v>2227</v>
-      </c>
-      <c r="BV11">
-        <v>16</v>
-      </c>
-      <c r="BW11">
-        <v>-190</v>
-      </c>
-      <c r="BX11">
-        <v>794</v>
-      </c>
-      <c r="BY11">
-        <v>-16</v>
-      </c>
-      <c r="BZ11">
-        <v>3117</v>
-      </c>
-      <c r="CA11">
-        <v>4035</v>
-      </c>
-      <c r="CB11">
+      <c r="D12">
+        <v>2020</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
         <v>1</v>
       </c>
-      <c r="CC11">
-        <v>3498</v>
-      </c>
-      <c r="CD11">
-        <v>3454</v>
-      </c>
-      <c r="CE11">
-        <v>23</v>
-      </c>
-      <c r="CF11">
-        <v>-381</v>
-      </c>
-      <c r="CG11">
-        <v>581</v>
-      </c>
-      <c r="CH11">
-        <v>-22</v>
-      </c>
-    </row>
-    <row r="12" spans="1:86">
-      <c r="A12" s="1">
-        <v>4420</v>
-      </c>
-      <c r="B12" t="s">
-        <v>85</v>
-      </c>
-      <c r="C12">
-        <v>1</v>
-      </c>
-      <c r="D12">
+      <c r="G12">
         <v>10.04</v>
       </c>
-      <c r="E12" t="s">
-        <v>87</v>
-      </c>
-      <c r="F12" t="s">
-        <v>88</v>
-      </c>
-      <c r="G12" t="s">
-        <v>89</v>
-      </c>
       <c r="H12" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="I12" t="s">
         <v>92</v>
       </c>
-      <c r="J12">
+      <c r="J12" t="s">
+        <v>93</v>
+      </c>
+      <c r="K12" t="s">
+        <v>94</v>
+      </c>
+      <c r="L12" t="s">
+        <v>96</v>
+      </c>
+      <c r="M12">
         <v>1820</v>
       </c>
-      <c r="K12">
+      <c r="N12">
         <v>1</v>
       </c>
-      <c r="L12">
-        <v>0</v>
-      </c>
-      <c r="M12">
-        <v>0</v>
-      </c>
-      <c r="N12">
+      <c r="O12">
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
         <v>6</v>
       </c>
-      <c r="O12">
+      <c r="R12">
         <v>10</v>
       </c>
-      <c r="P12">
-        <v>0</v>
-      </c>
-      <c r="Q12">
-        <v>0</v>
-      </c>
-      <c r="R12">
-        <v>0</v>
-      </c>
       <c r="S12">
         <v>0</v>
       </c>
@@ -3596,20 +3707,20 @@
         <v>0</v>
       </c>
       <c r="Y12">
+        <v>0</v>
+      </c>
+      <c r="Z12">
+        <v>0</v>
+      </c>
+      <c r="AA12">
+        <v>0</v>
+      </c>
+      <c r="AB12">
         <v>0.3297</v>
       </c>
-      <c r="Z12">
+      <c r="AC12">
         <v>0.3297</v>
       </c>
-      <c r="AA12">
-        <v>0</v>
-      </c>
-      <c r="AB12">
-        <v>0</v>
-      </c>
-      <c r="AC12">
-        <v>0</v>
-      </c>
       <c r="AD12">
         <v>0</v>
       </c>
@@ -3662,147 +3773,156 @@
         <v>0</v>
       </c>
       <c r="AU12">
+        <v>0</v>
+      </c>
+      <c r="AV12">
+        <v>0</v>
+      </c>
+      <c r="AW12">
+        <v>0</v>
+      </c>
+      <c r="AX12">
         <v>2710</v>
       </c>
-      <c r="AV12">
+      <c r="AY12">
         <v>89.3407</v>
       </c>
-      <c r="AW12">
+      <c r="AZ12">
         <v>0.0513005</v>
       </c>
-      <c r="AX12">
+      <c r="BA12">
         <v>39</v>
       </c>
-      <c r="AY12">
+      <c r="BB12">
         <v>1.2857</v>
       </c>
-      <c r="AZ12">
+      <c r="BC12">
         <v>11</v>
       </c>
-      <c r="BA12">
+      <c r="BD12">
         <v>0.3626</v>
       </c>
-      <c r="BB12">
+      <c r="BE12">
         <v>11</v>
       </c>
-      <c r="BC12">
+      <c r="BF12">
         <v>73</v>
       </c>
-      <c r="BD12">
+      <c r="BG12">
         <v>2.4066</v>
       </c>
-      <c r="BE12">
+      <c r="BH12">
         <v>7005</v>
       </c>
-      <c r="BF12">
+      <c r="BI12">
         <v>3017</v>
       </c>
-      <c r="BG12">
+      <c r="BJ12">
         <v>99.4615</v>
       </c>
-      <c r="BH12">
+      <c r="BK12">
         <v>0.0853304</v>
       </c>
-      <c r="BI12">
+      <c r="BL12">
         <v>5725</v>
       </c>
-      <c r="BJ12">
-        <v>0</v>
-      </c>
-      <c r="BK12">
+      <c r="BM12">
+        <v>0</v>
+      </c>
+      <c r="BN12">
         <v>33</v>
       </c>
-      <c r="BL12">
+      <c r="BO12">
         <v>33</v>
       </c>
-      <c r="BM12">
-        <v>0</v>
-      </c>
-      <c r="BN12">
-        <v>0</v>
-      </c>
-      <c r="BO12">
-        <v>0</v>
-      </c>
       <c r="BP12">
+        <v>0</v>
+      </c>
+      <c r="BQ12">
+        <v>0</v>
+      </c>
+      <c r="BR12">
+        <v>0</v>
+      </c>
+      <c r="BS12">
         <v>1.0879</v>
       </c>
-      <c r="BQ12">
+      <c r="BT12">
         <v>2143</v>
       </c>
-      <c r="BR12">
+      <c r="BU12">
         <v>2859</v>
       </c>
-      <c r="BS12">
+      <c r="BV12">
         <v>12</v>
       </c>
-      <c r="BT12">
+      <c r="BW12">
         <v>2014</v>
       </c>
-      <c r="BU12">
+      <c r="BX12">
         <v>2738</v>
       </c>
-      <c r="BV12">
+      <c r="BY12">
         <v>11</v>
       </c>
-      <c r="BW12">
+      <c r="BZ12">
         <v>129</v>
       </c>
-      <c r="BX12">
+      <c r="CA12">
         <v>121</v>
       </c>
-      <c r="BY12">
+      <c r="CB12">
         <v>1</v>
       </c>
-      <c r="BZ12">
+      <c r="CC12">
         <v>3248</v>
       </c>
-      <c r="CA12">
+      <c r="CD12">
         <v>3926</v>
       </c>
-      <c r="CB12">
+      <c r="CE12">
         <v>20</v>
       </c>
-      <c r="CC12">
+      <c r="CF12">
         <v>3066</v>
       </c>
-      <c r="CD12">
+      <c r="CG12">
         <v>3814</v>
       </c>
-      <c r="CE12">
+      <c r="CH12">
         <v>23</v>
       </c>
-      <c r="CF12">
+      <c r="CI12">
         <v>182</v>
       </c>
-      <c r="CG12">
+      <c r="CJ12">
         <v>112</v>
       </c>
-      <c r="CH12">
+      <c r="CK12">
         <v>-3</v>
       </c>
     </row>
-    <row r="13" spans="1:86">
+    <row r="13" spans="1:89">
       <c r="A13" s="1">
-        <v>4701</v>
+        <v>8889</v>
       </c>
       <c r="B13" t="s">
-        <v>85</v>
-      </c>
-      <c r="C13">
+        <v>88</v>
+      </c>
+      <c r="C13" t="s">
+        <v>89</v>
+      </c>
+      <c r="D13">
+        <v>2020</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
         <v>1</v>
       </c>
-      <c r="D13">
+      <c r="G13">
         <v>10.04</v>
-      </c>
-      <c r="E13" t="s">
-        <v>86</v>
-      </c>
-      <c r="F13" t="s">
-        <v>88</v>
-      </c>
-      <c r="G13" t="s">
-        <v>89</v>
       </c>
       <c r="H13" t="s">
         <v>90</v>
@@ -3810,36 +3930,36 @@
       <c r="I13" t="s">
         <v>92</v>
       </c>
-      <c r="J13">
+      <c r="J13" t="s">
+        <v>93</v>
+      </c>
+      <c r="K13" t="s">
+        <v>94</v>
+      </c>
+      <c r="L13" t="s">
+        <v>96</v>
+      </c>
+      <c r="M13">
         <v>2622</v>
       </c>
-      <c r="K13">
-        <v>0</v>
-      </c>
-      <c r="L13">
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
         <v>1</v>
       </c>
-      <c r="M13">
+      <c r="P13">
         <v>5</v>
       </c>
-      <c r="N13">
+      <c r="Q13">
         <v>2</v>
       </c>
-      <c r="O13">
+      <c r="R13">
         <v>7</v>
       </c>
-      <c r="P13">
+      <c r="S13">
         <v>20</v>
       </c>
-      <c r="Q13">
-        <v>0</v>
-      </c>
-      <c r="R13">
-        <v>0</v>
-      </c>
-      <c r="S13">
-        <v>0</v>
-      </c>
       <c r="T13">
         <v>0</v>
       </c>
@@ -3856,20 +3976,20 @@
         <v>0</v>
       </c>
       <c r="Y13">
+        <v>0</v>
+      </c>
+      <c r="Z13">
+        <v>0</v>
+      </c>
+      <c r="AA13">
+        <v>0</v>
+      </c>
+      <c r="AB13">
         <v>0.1602</v>
       </c>
-      <c r="Z13">
+      <c r="AC13">
         <v>0.6178</v>
       </c>
-      <c r="AA13">
-        <v>0</v>
-      </c>
-      <c r="AB13">
-        <v>0</v>
-      </c>
-      <c r="AC13">
-        <v>0</v>
-      </c>
       <c r="AD13">
         <v>0</v>
       </c>
@@ -3922,123 +4042,132 @@
         <v>0</v>
       </c>
       <c r="AU13">
+        <v>0</v>
+      </c>
+      <c r="AV13">
+        <v>0</v>
+      </c>
+      <c r="AW13">
+        <v>0</v>
+      </c>
+      <c r="AX13">
         <v>2901</v>
       </c>
-      <c r="AV13">
+      <c r="AY13">
         <v>66.3844</v>
       </c>
-      <c r="AW13">
+      <c r="AZ13">
         <v>0.0390955</v>
       </c>
-      <c r="AX13">
+      <c r="BA13">
         <v>68</v>
       </c>
-      <c r="AY13">
+      <c r="BB13">
         <v>1.5561</v>
       </c>
-      <c r="AZ13">
+      <c r="BC13">
         <v>11</v>
       </c>
-      <c r="BA13">
+      <c r="BD13">
         <v>0.2517</v>
       </c>
-      <c r="BB13">
+      <c r="BE13">
         <v>20</v>
       </c>
-      <c r="BC13">
+      <c r="BF13">
         <v>105</v>
       </c>
-      <c r="BD13">
+      <c r="BG13">
         <v>2.4027</v>
       </c>
-      <c r="BE13">
+      <c r="BH13">
         <v>8851</v>
       </c>
-      <c r="BF13">
+      <c r="BI13">
         <v>3227</v>
       </c>
-      <c r="BG13">
+      <c r="BJ13">
         <v>73.84439999999999</v>
       </c>
-      <c r="BH13">
+      <c r="BK13">
         <v>0.07694169999999999</v>
       </c>
-      <c r="BI13">
+      <c r="BL13">
         <v>8450</v>
       </c>
-      <c r="BJ13">
-        <v>0</v>
-      </c>
-      <c r="BK13">
+      <c r="BM13">
+        <v>0</v>
+      </c>
+      <c r="BN13">
         <v>34</v>
       </c>
-      <c r="BL13">
+      <c r="BO13">
         <v>34</v>
       </c>
-      <c r="BM13">
-        <v>0</v>
-      </c>
-      <c r="BN13">
-        <v>0</v>
-      </c>
-      <c r="BO13">
-        <v>0</v>
-      </c>
       <c r="BP13">
+        <v>0</v>
+      </c>
+      <c r="BQ13">
+        <v>0</v>
+      </c>
+      <c r="BR13">
+        <v>0</v>
+      </c>
+      <c r="BS13">
         <v>0.778</v>
       </c>
-      <c r="BQ13">
+      <c r="BT13">
         <v>2394</v>
       </c>
-      <c r="BR13">
+      <c r="BU13">
         <v>2241</v>
       </c>
-      <c r="BS13">
+      <c r="BV13">
         <v>14</v>
       </c>
-      <c r="BT13">
+      <c r="BW13">
         <v>3342</v>
       </c>
-      <c r="BU13">
+      <c r="BX13">
         <v>3000</v>
       </c>
-      <c r="BV13">
+      <c r="BY13">
         <v>62</v>
       </c>
-      <c r="BW13">
+      <c r="BZ13">
         <v>-948</v>
       </c>
-      <c r="BX13">
+      <c r="CA13">
         <v>-759</v>
       </c>
-      <c r="BY13">
+      <c r="CB13">
         <v>-48</v>
       </c>
-      <c r="BZ13">
+      <c r="CC13">
         <v>3715</v>
       </c>
-      <c r="CA13">
+      <c r="CD13">
         <v>3103</v>
       </c>
-      <c r="CB13">
+      <c r="CE13">
         <v>22</v>
       </c>
-      <c r="CC13">
+      <c r="CF13">
         <v>5414</v>
       </c>
-      <c r="CD13">
+      <c r="CG13">
         <v>5163</v>
       </c>
-      <c r="CE13">
+      <c r="CH13">
         <v>98</v>
       </c>
-      <c r="CF13">
+      <c r="CI13">
         <v>-1699</v>
       </c>
-      <c r="CG13">
+      <c r="CJ13">
         <v>-2060</v>
       </c>
-      <c r="CH13">
+      <c r="CK13">
         <v>-76</v>
       </c>
     </row>
